--- a/Tables/Appendix_13_1.xlsx
+++ b/Tables/Appendix_13_1.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -877,6 +877,110 @@
       </c>
       <c r="P9" t="n">
         <v>3.088096473937458</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Skew</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1592369883210087</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5204248864009475</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.168964663745478</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0902391796806504</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.3404572594071534</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.285022949005623</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.1150089429420956</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.1819066716215743</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5857008308771902</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.1830921947242463</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.3572989853493856</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.254965419928904</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.2511228381139947</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.5370258275348064</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.138620551447115</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Kurtosis</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.100176361130623</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6075608710187379</v>
+      </c>
+      <c r="D11" t="n">
+        <v>8.825629057129085</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.06169886382823186</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.3154624772792523</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.930947097270437</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.04287319055555594</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.1536598270021017</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.5007739136278233</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.06792334142128409</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.330341399089904</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2.817393881757934</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.1084024188518642</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.6362011399471905</v>
+      </c>
+      <c r="P11" t="n">
+        <v>9.269121934090329</v>
       </c>
     </row>
   </sheetData>
